--- a/AsientosContables/asiento_ASSA_mes_FEBRERO 2022 .xlsx
+++ b/AsientosContables/asiento_ASSA_mes_FEBRERO 2022 .xlsx
@@ -755,14 +755,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr syncRef="A7" syncVertical="1" transitionEvaluation="1">
+  <sheetPr syncRef="A1" syncVertical="1" transitionEvaluation="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.75" defaultRowHeight="15"/>
@@ -770,7 +770,7 @@
     <col width="7.9140625" customWidth="1" min="1" max="1"/>
     <col width="33.9140625" customWidth="1" min="2" max="2"/>
     <col width="16.58203125" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="24.6640625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.9" customHeight="1" thickBot="1" thickTop="1">
@@ -876,7 +876,7 @@
       </c>
       <c r="C10" s="23" t="n"/>
       <c r="D10" s="20" t="n">
-        <v>-153124.34</v>
+        <v>-157183.82</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1">
@@ -890,7 +890,7 @@
       </c>
       <c r="C11" s="23" t="n"/>
       <c r="D11" s="20" t="n">
-        <v>-83550.07000000001</v>
+        <v>-83550.06999999998</v>
       </c>
     </row>
     <row r="12" ht="20.1" customHeight="1">
@@ -946,7 +946,7 @@
       </c>
       <c r="C15" s="23" t="n"/>
       <c r="D15" s="20" t="n">
-        <v>-234413.77</v>
+        <v>-234413.7699999999</v>
       </c>
     </row>
     <row r="16" ht="20.1" customHeight="1">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C20" s="23" t="n"/>
       <c r="D20" s="20" t="n">
-        <v>-1848267.39</v>
+        <v>-1844207.909999999</v>
       </c>
     </row>
     <row r="21" ht="20.1" customHeight="1" thickBot="1">

--- a/AsientosContables/asiento_ASSA_mes_FEBRERO 2022 .xlsx
+++ b/AsientosContables/asiento_ASSA_mes_FEBRERO 2022 .xlsx
@@ -876,7 +876,7 @@
       </c>
       <c r="C10" s="23" t="n"/>
       <c r="D10" s="20" t="n">
-        <v>-157183.82</v>
+        <v>-153124.34</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1">
@@ -960,7 +960,7 @@
       </c>
       <c r="C16" s="23" t="n"/>
       <c r="D16" s="20" t="n">
-        <v>-224313.07</v>
+        <v>-228372.55</v>
       </c>
     </row>
     <row r="17" ht="20.1" customHeight="1">
